--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_st.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.144081830978394</v>
+        <v>9.431947040557862</v>
       </c>
       <c r="C2">
-        <v>0.02521139253755549</v>
+        <v>0.2698947301495636</v>
       </c>
       <c r="D2">
-        <v>0.05281205177307129</v>
+        <v>0.07581892013549804</v>
       </c>
       <c r="E2">
-        <v>0.003177530206130699</v>
+        <v>0.001003465779763175</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.26016163825989</v>
+        <v>18.87087035179138</v>
       </c>
       <c r="C3">
-        <v>0.4181688443421762</v>
+        <v>0.2516988682142017</v>
       </c>
       <c r="D3">
-        <v>0.0549126148223877</v>
+        <v>0.08106350898742676</v>
       </c>
       <c r="E3">
-        <v>0.002342681107261281</v>
+        <v>0.001545687643278104</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.0699414730072</v>
+        <v>37.3622184753418</v>
       </c>
       <c r="C4">
-        <v>0.5056206352941403</v>
+        <v>0.6725485600736123</v>
       </c>
       <c r="D4">
-        <v>0.07925310134887695</v>
+        <v>0.09855189323425292</v>
       </c>
       <c r="E4">
-        <v>0.01663207666630557</v>
+        <v>0.004352831048032607</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.377155399322509</v>
+        <v>9.667272663116455</v>
       </c>
       <c r="C5">
-        <v>0.2991801310377464</v>
+        <v>0.1598870351858283</v>
       </c>
       <c r="D5">
-        <v>0.04781303405761719</v>
+        <v>0.07550115585327148</v>
       </c>
       <c r="E5">
-        <v>0.002875882974537975</v>
+        <v>0.0008671984579980333</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.55403294563293</v>
+        <v>18.80203385353088</v>
       </c>
       <c r="C6">
-        <v>0.2126034618833092</v>
+        <v>0.2443288318762983</v>
       </c>
       <c r="D6">
-        <v>0.05204677581787109</v>
+        <v>0.07970027923583985</v>
       </c>
       <c r="E6">
-        <v>0.0008504891267210022</v>
+        <v>0.01140724101145168</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.59560585021973</v>
+        <v>37.63479619026184</v>
       </c>
       <c r="C7">
-        <v>0.1268706561335619</v>
+        <v>0.2618839344474876</v>
       </c>
       <c r="D7">
-        <v>0.08319005966186524</v>
+        <v>0.0944180965423584</v>
       </c>
       <c r="E7">
-        <v>0.01540171528151426</v>
+        <v>0.003068319566264734</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.565639448165894</v>
+        <v>9.593413591384888</v>
       </c>
       <c r="C8">
-        <v>0.4123604737756519</v>
+        <v>0.1783669309044972</v>
       </c>
       <c r="D8">
-        <v>0.05264315605163574</v>
+        <v>0.07731666564941406</v>
       </c>
       <c r="E8">
-        <v>0.006056073849643488</v>
+        <v>0.005093753820380187</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.65738134384155</v>
+        <v>18.66188583374024</v>
       </c>
       <c r="C9">
-        <v>0.06806602847702335</v>
+        <v>0.2926268141809086</v>
       </c>
       <c r="D9">
-        <v>0.05153846740722656</v>
+        <v>0.08641614913940429</v>
       </c>
       <c r="E9">
-        <v>0.003567963501897465</v>
+        <v>0.01199163151243294</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.87643132209778</v>
+        <v>37.70706534385681</v>
       </c>
       <c r="C10">
-        <v>0.2726853808504401</v>
+        <v>0.4371196731314482</v>
       </c>
       <c r="D10">
-        <v>0.05956783294677735</v>
+        <v>0.09934630393981933</v>
       </c>
       <c r="E10">
-        <v>0.0008826806629825518</v>
+        <v>0.004957331845614863</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.07413568496704</v>
+        <v>15.2646276473999</v>
       </c>
       <c r="C11">
-        <v>0.1154526809655483</v>
+        <v>0.1544590607876523</v>
       </c>
       <c r="D11">
-        <v>0.06436285972595215</v>
+        <v>0.08472566604614258</v>
       </c>
       <c r="E11">
-        <v>0.01415467497285178</v>
+        <v>0.005355953590272725</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.13928003311157</v>
+        <v>30.16928339004517</v>
       </c>
       <c r="C12">
-        <v>0.1009199013744683</v>
+        <v>0.4654383766330015</v>
       </c>
       <c r="D12">
-        <v>0.06246733665466309</v>
+        <v>0.08849787712097168</v>
       </c>
       <c r="E12">
-        <v>0.003075430987411994</v>
+        <v>0.003449148387120326</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.55650534629822</v>
+        <v>60.27638325691223</v>
       </c>
       <c r="C13">
-        <v>0.3009788573017667</v>
+        <v>0.7670106483176664</v>
       </c>
       <c r="D13">
-        <v>0.06929969787597656</v>
+        <v>0.1124795913696289</v>
       </c>
       <c r="E13">
-        <v>0.001956123721977872</v>
+        <v>0.002254488668867911</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.9265465259552</v>
+        <v>15.11976375579834</v>
       </c>
       <c r="C14">
-        <v>0.2289133054642467</v>
+        <v>0.2134729475698011</v>
       </c>
       <c r="D14">
-        <v>0.05098652839660645</v>
+        <v>0.07951412200927735</v>
       </c>
       <c r="E14">
-        <v>0.001315794756918753</v>
+        <v>0.001784848934381573</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.08577737808228</v>
+        <v>30.50737795829773</v>
       </c>
       <c r="C15">
-        <v>0.05792421987231228</v>
+        <v>0.4992763904168171</v>
       </c>
       <c r="D15">
-        <v>0.05831789970397949</v>
+        <v>0.09036498069763184</v>
       </c>
       <c r="E15">
-        <v>0.001513912267820923</v>
+        <v>0.00342705780352353</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.37633032798767</v>
+        <v>60.39431381225586</v>
       </c>
       <c r="C16">
-        <v>0.328889828210029</v>
+        <v>0.5780873956431265</v>
       </c>
       <c r="D16">
-        <v>0.08214497566223145</v>
+        <v>0.1097262382507324</v>
       </c>
       <c r="E16">
-        <v>0.01740089776831857</v>
+        <v>0.01197439057052914</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.27607569694519</v>
+        <v>15.33328876495361</v>
       </c>
       <c r="C17">
-        <v>0.4011230492617365</v>
+        <v>0.2745638519434921</v>
       </c>
       <c r="D17">
-        <v>0.05359644889831543</v>
+        <v>0.07945141792297364</v>
       </c>
       <c r="E17">
-        <v>0.006350126457820479</v>
+        <v>0.0009426159059699838</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.23848767280579</v>
+        <v>30.175448179245</v>
       </c>
       <c r="C18">
-        <v>0.4654179899944972</v>
+        <v>0.5680881548367956</v>
       </c>
       <c r="D18">
-        <v>0.06740550994873047</v>
+        <v>0.08680939674377441</v>
       </c>
       <c r="E18">
-        <v>0.01720172140024277</v>
+        <v>0.006525064234239927</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.70716624259948</v>
+        <v>54.18311033248902</v>
       </c>
       <c r="C19">
-        <v>1.243183154809623</v>
+        <v>0.5118760497515135</v>
       </c>
       <c r="D19">
-        <v>0.04740705490112305</v>
+        <v>0.09054827690124512</v>
       </c>
       <c r="E19">
-        <v>0.01012856215938067</v>
+        <v>0.01431990528411293</v>
       </c>
       <c r="F19">
         <v>2</v>
